--- a/report/figures/task3/task3_tables.xlsx
+++ b/report/figures/task3/task3_tables.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,172 +440,162 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>200</v>
+        <v>0.3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>6.21221774980418</v>
       </c>
       <c r="C2" t="n">
-        <v>2.769069657884152</v>
+        <v>4.899544383147174</v>
       </c>
       <c r="D2" t="n">
-        <v>1.905262726012223</v>
+        <v>4.472625375797141</v>
       </c>
       <c r="E2" t="n">
-        <v>1.354468062821353</v>
+        <v>3.344246116547132</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.240189501873664</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.368370353705924</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.373730357389861</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.88218556163242</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.219006554201532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>4.899544383147174</v>
+        <v>2.769069657884152</v>
       </c>
       <c r="C3" t="n">
         <v>2.189820455431489</v>
       </c>
       <c r="D3" t="n">
-        <v>1.537950933881339</v>
+        <v>1.850608014787267</v>
       </c>
       <c r="E3" t="n">
-        <v>1.044761933625898</v>
+        <v>1.481755482944626</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.465836511143292</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.494264764627342</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.899897849526102</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.154807223676037</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.736072019377965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>4.472625375797141</v>
+        <v>1.905262726012223</v>
       </c>
       <c r="C4" t="n">
-        <v>1.850608014787267</v>
+        <v>1.537950933881339</v>
       </c>
       <c r="D4" t="n">
         <v>1.336773953992093</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9593433798076512</v>
+        <v>1.080217041770822</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.014661630166797</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.083056399266539</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.336930478410836</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.563086736921286</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.881671523238568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.3</v>
+        <v>200</v>
       </c>
       <c r="B5" t="n">
-        <v>3.344246116547132</v>
+        <v>1.354468062821353</v>
       </c>
       <c r="C5" t="n">
-        <v>1.481755482944626</v>
+        <v>1.044761933625898</v>
       </c>
       <c r="D5" t="n">
-        <v>1.080217041770822</v>
+        <v>0.9593433798076512</v>
       </c>
       <c r="E5" t="n">
         <v>0.7710608790736584</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.240189501873664</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.465836511143292</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.014661630166797</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F5" t="n">
         <v>0.6924125898147587</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.368370353705924</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.494264764627342</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.083056399266539</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="G5" t="n">
         <v>0.7418372608698761</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.373730357389861</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.899897849526102</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.336930478410836</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="H5" t="n">
         <v>0.9478041318669316</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4.88218556163242</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.154807223676037</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.563086736921286</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="I5" t="n">
         <v>1.057910631526517</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6.219006554201532</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.736072019377965</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.881671523238568</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="J5" t="n">
         <v>1.368014570694643</v>
       </c>
     </row>
@@ -620,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,172 +621,162 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>200</v>
+        <v>0.3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>9.715539515152855</v>
       </c>
       <c r="C2" t="n">
-        <v>4.806933469375015</v>
+        <v>5.972408305822888</v>
       </c>
       <c r="D2" t="n">
-        <v>4.777829008877432</v>
+        <v>6.36121901827659</v>
       </c>
       <c r="E2" t="n">
-        <v>2.989057570267791</v>
+        <v>4.463283235487901</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.097794181283869</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.205848475971241</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.503998107063503</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.82896403262809</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9.74462152209051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>5.972408305822888</v>
+        <v>4.806933469375015</v>
       </c>
       <c r="C3" t="n">
         <v>2.854801626167284</v>
       </c>
       <c r="D3" t="n">
-        <v>2.229432515190529</v>
+        <v>2.551798439899109</v>
       </c>
       <c r="E3" t="n">
-        <v>1.466918246161813</v>
+        <v>1.861887618586995</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.826107159735111</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.856142817766643</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.492242368149514</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.93719046517999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.622107996835278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>6.36121901827659</v>
+        <v>4.777829008877432</v>
       </c>
       <c r="C4" t="n">
-        <v>2.551798439899109</v>
+        <v>2.229432515190529</v>
       </c>
       <c r="D4" t="n">
         <v>1.717099206499242</v>
       </c>
       <c r="E4" t="n">
-        <v>1.240387633801968</v>
+        <v>1.318972088672753</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.273401836150586</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.30610062307182</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.710339555290351</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.109493385421166</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.473042705211538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.3</v>
+        <v>200</v>
       </c>
       <c r="B5" t="n">
-        <v>4.463283235487901</v>
+        <v>2.989057570267791</v>
       </c>
       <c r="C5" t="n">
-        <v>1.861887618586995</v>
+        <v>1.466918246161813</v>
       </c>
       <c r="D5" t="n">
-        <v>1.318972088672753</v>
+        <v>1.240387633801968</v>
       </c>
       <c r="E5" t="n">
         <v>0.9522994062671843</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.097794181283869</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.826107159735111</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.273401836150586</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F5" t="n">
         <v>0.8837234992536265</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.205848475971241</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.856142817766643</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.30610062307182</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="G5" t="n">
         <v>0.9253861601956724</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.503998107063503</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.492242368149514</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.710339555290351</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="H5" t="n">
         <v>1.183279471844472</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.82896403262809</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.93719046517999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.109493385421166</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="I5" t="n">
         <v>1.448877364969028</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9.74462152209051</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.622107996835278</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.473042705211538</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="J5" t="n">
         <v>2.58759851738177</v>
       </c>
     </row>
@@ -811,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,172 +802,162 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>200</v>
+        <v>0.3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1.563940593592217</v>
       </c>
       <c r="C2" t="n">
-        <v>1.735938081473904</v>
+        <v>1.218972181651423</v>
       </c>
       <c r="D2" t="n">
-        <v>2.507700876969122</v>
+        <v>1.422256165852668</v>
       </c>
       <c r="E2" t="n">
-        <v>2.206812882720611</v>
+        <v>1.33461565923747</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.264677321778337</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.2486300597391</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.258421909289387</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.193925130260535</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.566909672334577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>1.218972181651423</v>
+        <v>1.735938081473904</v>
       </c>
       <c r="C3" t="n">
         <v>1.303669266165825</v>
       </c>
       <c r="D3" t="n">
-        <v>1.449612250999512</v>
+        <v>1.378897324289631</v>
       </c>
       <c r="E3" t="n">
-        <v>1.404069385520968</v>
+        <v>1.256541743909696</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.245778192760953</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.242178000650072</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.311777035155423</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.36308734856069</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.689322490087851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>1.422256165852668</v>
+        <v>2.507700876969122</v>
       </c>
       <c r="C4" t="n">
-        <v>1.378897324289631</v>
+        <v>1.449612250999512</v>
       </c>
       <c r="D4" t="n">
         <v>1.284509771731683</v>
       </c>
       <c r="E4" t="n">
-        <v>1.292954806287053</v>
+        <v>1.221025069656866</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.255001468756886</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.205939620463284</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.279303286827131</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.349568987819641</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.845722094594938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.3</v>
+        <v>200</v>
       </c>
       <c r="B5" t="n">
-        <v>1.33461565923747</v>
+        <v>2.206812882720611</v>
       </c>
       <c r="C5" t="n">
-        <v>1.256541743909696</v>
+        <v>1.404069385520968</v>
       </c>
       <c r="D5" t="n">
-        <v>1.221025069656866</v>
+        <v>1.292954806287053</v>
       </c>
       <c r="E5" t="n">
         <v>1.235050865777633</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.264677321778337</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.245778192760953</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.255001468756886</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F5" t="n">
         <v>1.27629611629397</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.2486300597391</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.242178000650072</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.205939620463284</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="G5" t="n">
         <v>1.24742475069339</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.258421909289387</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.311777035155423</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.279303286827131</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="H5" t="n">
         <v>1.248443040139226</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.193925130260535</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.36308734856069</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.349568987819641</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="I5" t="n">
         <v>1.369564991400421</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.566909672334577</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.689322490087851</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.845722094594938</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="J5" t="n">
         <v>1.891499237517516</v>
       </c>
     </row>
@@ -1002,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,172 +983,162 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>200</v>
+        <v>0.3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>0.08635221303536381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0408272445567358</v>
+        <v>0.0447912722983332</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0387847609029048</v>
+        <v>0.0441863229587422</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0247259142280051</v>
+        <v>0.0232943858133699</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0161950908298472</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.011413486329217</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.008675712368708399</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.006558327413848</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0104607735942492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0447912722983332</v>
+        <v>0.0408272445567358</v>
       </c>
       <c r="C3" t="n">
         <v>0.0220328223296308</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0170036684985674</v>
+        <v>0.0177592407114567</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0113077625675862</v>
+        <v>0.0100900009503702</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0073931480593072</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0047138979674429</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0035326515925437</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0031281538221953</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.003954546207131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0441863229587422</v>
+        <v>0.0387847609029048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0177592407114567</v>
+        <v>0.0170036684985674</v>
       </c>
       <c r="D4" t="n">
         <v>0.012123100405762</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008685359219066701</v>
+        <v>0.0070118050835266</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0046976527783044</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0032695332303518</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0024249626528775</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0022873622505259</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0032425384107695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.3</v>
+        <v>200</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0232943858133699</v>
+        <v>0.0247259142280051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0100900009503702</v>
+        <v>0.0113077625675862</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0070118050835266</v>
+        <v>0.008685359219066701</v>
       </c>
       <c r="E5" t="n">
         <v>0.005134398734742</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0161950908298472</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0073931480593072</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0046976527783044</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F5" t="n">
         <v>0.0034398737906293</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.011413486329217</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0047138979674429</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0032695332303518</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="G5" t="n">
         <v>0.0023902963594392</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.008675712368708399</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0035326515925437</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0024249626528775</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="H5" t="n">
         <v>0.0015672280756575</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.006558327413848</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0031281538221953</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0022873622505259</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="I5" t="n">
         <v>0.0014346407692517</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0104607735942492</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003954546207131</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0032425384107695</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="J5" t="n">
         <v>0.0022821090057315</v>
       </c>
     </row>
@@ -1193,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,172 +1164,162 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>200</v>
+        <v>0.3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1.616787685880029</v>
       </c>
       <c r="C2" t="n">
-        <v>1.706671797758872</v>
+        <v>1.198526320806287</v>
       </c>
       <c r="D2" t="n">
-        <v>2.377746559198172</v>
+        <v>1.455372477987113</v>
       </c>
       <c r="E2" t="n">
-        <v>2.100047195144773</v>
+        <v>1.384312266707187</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.381471048796509</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.392849605275529</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.557540388296615</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.219940140689938</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.931808688484105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>1.198526320806287</v>
+        <v>1.706671797758872</v>
       </c>
       <c r="C3" t="n">
         <v>1.300383860147838</v>
       </c>
       <c r="D3" t="n">
-        <v>1.424709482362133</v>
+        <v>1.370659541423518</v>
       </c>
       <c r="E3" t="n">
-        <v>1.392117791907145</v>
+        <v>1.268157648817301</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.287416385472621</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.25803968561924</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.383551008825014</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.361333738508257</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.68084869824208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>1.455372477987113</v>
+        <v>2.377746559198172</v>
       </c>
       <c r="C4" t="n">
-        <v>1.370659541423518</v>
+        <v>1.424709482362133</v>
       </c>
       <c r="D4" t="n">
         <v>1.282556006337943</v>
       </c>
       <c r="E4" t="n">
-        <v>1.275633290183501</v>
+        <v>1.198635425825507</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.260811127428249</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.197785538284499</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.238278751280237</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.391589077276747</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.999170346585981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.3</v>
+        <v>200</v>
       </c>
       <c r="B5" t="n">
-        <v>1.384312266707187</v>
+        <v>2.100047195144773</v>
       </c>
       <c r="C5" t="n">
-        <v>1.268157648817301</v>
+        <v>1.392117791907145</v>
       </c>
       <c r="D5" t="n">
-        <v>1.198635425825507</v>
+        <v>1.275633290183501</v>
       </c>
       <c r="E5" t="n">
         <v>1.248704891136629</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.381471048796509</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.287416385472621</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.260811127428249</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F5" t="n">
         <v>1.29932650909183</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.392849605275529</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.25803968561924</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.197785538284499</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="G5" t="n">
         <v>1.204346466048023</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.557540388296615</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.383551008825014</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.238278751280237</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="H5" t="n">
         <v>1.283943029466977</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.219940140689938</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.361333738508257</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.391589077276747</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="I5" t="n">
         <v>1.413369293814026</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.931808688484105</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.68084869824208</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.999170346585981</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="J5" t="n">
         <v>2.001592350255167</v>
       </c>
     </row>
